--- a/tests/shouldFail/undefined.xlsx
+++ b/tests/shouldFail/undefined.xlsx
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1646,7 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -1657,7 +1657,7 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B84">
         <f>SUM(B1:B82)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B85">
         <f>B84/82</f>
-        <v>0.51219512195121952</v>
+        <v>0.53658536585365857</v>
       </c>
     </row>
   </sheetData>

--- a/tests/shouldFail/undefined.xlsx
+++ b/tests/shouldFail/undefined.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
-    <sheet name="Syntactic" sheetId="3" r:id="rId2"/>
-    <sheet name="Macros" sheetId="4" r:id="rId3"/>
-    <sheet name="Library" sheetId="2" r:id="rId4"/>
+    <sheet name="Impl. Specific" sheetId="5" r:id="rId2"/>
+    <sheet name="Syntactic" sheetId="3" r:id="rId3"/>
+    <sheet name="Macros" sheetId="4" r:id="rId4"/>
+    <sheet name="Library" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="206">
   <si>
     <t>This was taken from ISO/IEC 9899:201x n1516.  I've moved syntactic properties and things related to cpp to bottom, along with cases that are partially tested.  Undefinedness pertaining to libraries is in undefinedLib.txt</t>
   </si>
@@ -632,6 +633,9 @@
   </si>
   <si>
     <t>Percentage</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1120,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1460,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,823 +1582,744 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>83</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>199</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>84</v>
+      <c r="A76" t="s">
+        <v>205</v>
       </c>
       <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
-        <v>200</v>
+        <f>COUNT(B2:B74)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>85</v>
+      <c r="A77" t="s">
+        <v>203</v>
       </c>
       <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77" t="s">
-        <v>32</v>
+        <f>SUM(B2:B74)</f>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>86</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>87</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>88</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>89</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>90</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>203</v>
-      </c>
-      <c r="B84">
-        <f>SUM(B1:B82)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A78" t="s">
         <v>204</v>
       </c>
-      <c r="B85">
-        <f>B84/82</f>
-        <v>0.53658536585365857</v>
+      <c r="B78" s="1">
+        <f>B77/B76</f>
+        <v>0.64383561643835618</v>
       </c>
     </row>
   </sheetData>
@@ -2406,10 +2332,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="143.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2518,12 +2552,23 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>34</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2532,7 +2577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -2668,7 +2713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
